--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-observation.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-observation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3841" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3767" uniqueCount="606">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -440,7 +440,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -692,32 +692,6 @@
     <t>Observation.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.extension:medicationStatementChanged.value[x]:valueReference</t>
-  </si>
-  <si>
-    <t>valueReference</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-medicationstatement-changed) &lt;&lt;referenced, bundled&gt;&gt;
 </t>
   </si>
@@ -725,6 +699,12 @@
     <t>The changed MedicationStatement</t>
   </si>
   <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
     <t>Observation.extension:medicationRequestChanged</t>
   </si>
   <si>
@@ -750,9 +730,6 @@
     <t>Observation.extension:medicationRequestChanged.value[x]</t>
   </si>
   <si>
-    <t>Observation.extension:medicationRequestChanged.value[x]:valueReference</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-medicationrequest-changed) &lt;&lt;referenced, bundled&gt;&gt;
 </t>
   </si>
@@ -1103,7 +1080,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-emed/ValueSet/ihe-pharmaceuticaladvicestatuslist</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/ihe-pharmaceuticaladvicestatuslist</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1295,6 +1272,13 @@
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -2237,7 +2221,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP100"/>
+  <dimension ref="A1:AP98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2246,17 +2230,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="69.84375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.71484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.9921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="29.10546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="149.59375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="147.890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2265,28 +2249,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.1171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="64.1171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5236,17 +5220,19 @@
         <v>83</v>
       </c>
       <c r="AB25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AC25" s="2"/>
-      <c r="AD25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5281,20 +5267,20 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>94</v>
@@ -5309,13 +5295,13 @@
         <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5366,19 +5352,19 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>83</v>
@@ -5390,7 +5376,7 @@
         <v>83</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>83</v>
@@ -5401,14 +5387,12 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>83</v>
       </c>
@@ -5429,13 +5413,13 @@
         <v>83</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5486,19 +5470,19 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>83</v>
@@ -5510,7 +5494,7 @@
         <v>83</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>83</v>
@@ -5521,10 +5505,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5535,7 +5519,7 @@
         <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>83</v>
@@ -5547,13 +5531,13 @@
         <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5592,31 +5576,31 @@
         <v>83</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>83</v>
@@ -5628,7 +5612,7 @@
         <v>83</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>83</v>
@@ -5639,10 +5623,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5650,10 +5634,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>83</v>
@@ -5665,22 +5649,24 @@
         <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>83</v>
@@ -5710,31 +5696,31 @@
         <v>83</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>83</v>
@@ -5746,7 +5732,7 @@
         <v>83</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
@@ -5757,10 +5743,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5783,24 +5769,22 @@
         <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>130</v>
+        <v>228</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>232</v>
+        <v>83</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>83</v>
@@ -5842,10 +5826,10 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>94</v>
@@ -5854,7 +5838,7 @@
         <v>83</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>83</v>
@@ -5877,10 +5861,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5888,30 +5872,32 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -5948,29 +5934,31 @@
         <v>83</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AC31" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>220</v>
+        <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>83</v>
@@ -5982,7 +5970,7 @@
         <v>83</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
@@ -5993,14 +5981,12 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>83</v>
       </c>
@@ -6018,19 +6004,21 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>83</v>
       </c>
@@ -6078,13 +6066,13 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>83</v>
@@ -6093,19 +6081,19 @@
         <v>106</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>83</v>
+        <v>238</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>83</v>
+        <v>241</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>83</v>
@@ -6113,10 +6101,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6127,29 +6115,27 @@
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>83</v>
@@ -6198,19 +6184,19 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>239</v>
+        <v>111</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>83</v>
@@ -6222,7 +6208,7 @@
         <v>83</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -6233,21 +6219,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>83</v>
+        <v>244</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>83</v>
@@ -6256,21 +6242,21 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>241</v>
+        <v>114</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>83</v>
       </c>
@@ -6306,19 +6292,19 @@
         <v>83</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6330,22 +6316,22 @@
         <v>83</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>245</v>
+        <v>83</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>246</v>
+        <v>83</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>247</v>
+        <v>112</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>248</v>
+        <v>83</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>83</v>
@@ -6353,10 +6339,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6373,22 +6359,26 @@
         <v>83</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
       </c>
@@ -6412,13 +6402,13 @@
         <v>83</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>83</v>
+        <v>254</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>83</v>
@@ -6436,7 +6426,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>111</v>
+        <v>256</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6448,7 +6438,7 @@
         <v>83</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>83</v>
@@ -6457,10 +6447,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>112</v>
+        <v>257</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6471,21 +6461,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>251</v>
+        <v>83</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>83</v>
@@ -6494,21 +6484,23 @@
         <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>114</v>
+        <v>259</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
       </c>
@@ -6532,43 +6524,43 @@
         <v>83</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>83</v>
+        <v>264</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>83</v>
+        <v>265</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>120</v>
+        <v>266</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>83</v>
@@ -6577,10 +6569,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>83</v>
+        <v>267</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>112</v>
+        <v>257</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6591,10 +6583,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6602,7 +6594,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>94</v>
@@ -6611,38 +6603,38 @@
         <v>83</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>83</v>
+        <v>273</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>83</v>
+        <v>274</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>83</v>
@@ -6654,13 +6646,13 @@
         <v>83</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>260</v>
+        <v>83</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>261</v>
+        <v>83</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>262</v>
+        <v>83</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>83</v>
@@ -6678,7 +6670,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6699,10 +6691,10 @@
         <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>181</v>
+        <v>276</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
@@ -6713,10 +6705,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6724,7 +6716,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>94</v>
@@ -6739,20 +6731,18 @@
         <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>266</v>
+        <v>108</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>83</v>
       </c>
@@ -6764,7 +6754,7 @@
         <v>83</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>83</v>
@@ -6776,13 +6766,13 @@
         <v>83</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>271</v>
+        <v>83</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>83</v>
@@ -6800,7 +6790,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6821,10 +6811,10 @@
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6835,10 +6825,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6846,7 +6836,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>94</v>
@@ -6861,32 +6851,28 @@
         <v>95</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>130</v>
+        <v>287</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>280</v>
+        <v>83</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>281</v>
+        <v>83</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>83</v>
@@ -6922,7 +6908,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6943,10 +6929,10 @@
         <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -6957,10 +6943,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6968,7 +6954,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>94</v>
@@ -6983,16 +6969,16 @@
         <v>95</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>108</v>
+        <v>294</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7006,7 +6992,7 @@
         <v>83</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>289</v>
+        <v>83</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>83</v>
@@ -7042,7 +7028,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -7063,10 +7049,10 @@
         <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -7077,21 +7063,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>83</v>
+        <v>302</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>83</v>
@@ -7103,16 +7089,18 @@
         <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>295</v>
+        <v>115</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>296</v>
+        <v>116</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>83</v>
       </c>
@@ -7160,13 +7148,13 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>83</v>
@@ -7175,16 +7163,16 @@
         <v>106</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>83</v>
+        <v>305</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
@@ -7195,21 +7183,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>83</v>
@@ -7221,16 +7209,16 @@
         <v>95</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>302</v>
+        <v>115</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>303</v>
+        <v>116</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7280,13 +7268,13 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>83</v>
@@ -7295,16 +7283,16 @@
         <v>106</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>83</v>
+        <v>312</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -7315,50 +7303,52 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>309</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>310</v>
+        <v>158</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>115</v>
+        <v>316</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>83</v>
+        <v>320</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>83</v>
@@ -7376,13 +7366,13 @@
         <v>83</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>83</v>
+        <v>321</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>83</v>
@@ -7400,13 +7390,13 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>83</v>
@@ -7415,19 +7405,19 @@
         <v>106</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>83</v>
+        <v>324</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>83</v>
+        <v>327</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>83</v>
@@ -7435,14 +7425,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>316</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7458,10 +7448,10 @@
         <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>317</v>
+        <v>259</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>115</v>
@@ -7470,9 +7460,11 @@
         <v>116</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
       </c>
@@ -7496,13 +7488,13 @@
         <v>83</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>83</v>
+        <v>331</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>83</v>
+        <v>332</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>83</v>
@@ -7520,7 +7512,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7535,19 +7527,19 @@
         <v>106</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>319</v>
+        <v>83</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>320</v>
+        <v>83</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>83</v>
+        <v>334</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>83</v>
@@ -7555,14 +7547,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>83</v>
+        <v>336</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7575,32 +7567,32 @@
         <v>83</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>158</v>
+        <v>259</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>327</v>
+        <v>83</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>83</v>
@@ -7618,13 +7610,11 @@
         <v>83</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>83</v>
@@ -7642,7 +7632,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>94</v>
@@ -7657,30 +7647,30 @@
         <v>106</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>83</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7691,7 +7681,7 @@
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>83</v>
@@ -7700,22 +7690,22 @@
         <v>83</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>266</v>
+        <v>349</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>115</v>
+        <v>350</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>116</v>
+        <v>351</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
@@ -7740,13 +7730,13 @@
         <v>83</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>338</v>
+        <v>83</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>339</v>
+        <v>83</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>83</v>
@@ -7764,13 +7754,13 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>83</v>
@@ -7779,19 +7769,19 @@
         <v>106</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>83</v>
+        <v>354</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>83</v>
+        <v>355</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>83</v>
@@ -7799,18 +7789,18 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>343</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>94</v>
@@ -7822,23 +7812,19 @@
         <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>266</v>
+        <v>108</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>344</v>
+        <v>109</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>83</v>
       </c>
@@ -7862,11 +7848,13 @@
         <v>83</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="Y47" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z47" t="s" s="2">
-        <v>348</v>
+        <v>83</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>83</v>
@@ -7884,10 +7872,10 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>342</v>
+        <v>111</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>94</v>
@@ -7896,44 +7884,44 @@
         <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>349</v>
+        <v>83</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>350</v>
+        <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>351</v>
+        <v>83</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>352</v>
+        <v>112</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>353</v>
+        <v>83</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>354</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>83</v>
+        <v>244</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>83</v>
@@ -7942,23 +7930,21 @@
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>356</v>
+        <v>114</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>357</v>
+        <v>245</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>358</v>
+        <v>246</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>83</v>
       </c>
@@ -7994,46 +7980,46 @@
         <v>83</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>355</v>
+        <v>120</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>361</v>
+        <v>83</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>362</v>
+        <v>83</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>363</v>
+        <v>112</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>364</v>
+        <v>83</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>83</v>
@@ -8041,10 +8027,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8052,7 +8038,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>94</v>
@@ -8064,18 +8050,20 @@
         <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>108</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>109</v>
+        <v>361</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -8124,7 +8112,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>111</v>
+        <v>364</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8133,10 +8121,10 @@
         <v>94</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>83</v>
+        <v>365</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>83</v>
@@ -8148,7 +8136,7 @@
         <v>83</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -8166,14 +8154,14 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>251</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>83</v>
@@ -8182,19 +8170,19 @@
         <v>83</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>252</v>
+        <v>367</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>253</v>
+        <v>368</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8220,43 +8208,43 @@
         <v>83</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>83</v>
+        <v>371</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>120</v>
+        <v>372</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>83</v>
@@ -8268,7 +8256,7 @@
         <v>83</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8279,10 +8267,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8290,7 +8278,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>94</v>
@@ -8305,16 +8293,16 @@
         <v>95</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8364,7 +8352,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8373,7 +8361,7 @@
         <v>94</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>372</v>
+        <v>83</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>106</v>
@@ -8388,7 +8376,7 @@
         <v>83</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>181</v>
+        <v>378</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8399,10 +8387,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8425,16 +8413,16 @@
         <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8460,13 +8448,13 @@
         <v>83</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>377</v>
+        <v>83</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>378</v>
+        <v>83</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>83</v>
@@ -8484,7 +8472,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8519,10 +8507,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8533,7 +8521,7 @@
         <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>83</v>
@@ -8545,16 +8533,16 @@
         <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>241</v>
+        <v>385</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>381</v>
+        <v>115</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>382</v>
+        <v>116</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8610,7 +8598,7 @@
         <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>83</v>
@@ -8625,13 +8613,13 @@
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>83</v>
+        <v>344</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>83</v>
+        <v>357</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>83</v>
@@ -8639,14 +8627,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>83</v>
+        <v>389</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8665,18 +8653,20 @@
         <v>95</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>108</v>
+        <v>390</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>387</v>
+        <v>115</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>388</v>
+        <v>116</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
       </c>
@@ -8724,7 +8714,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8739,19 +8729,19 @@
         <v>106</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>83</v>
+        <v>393</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>83</v>
+        <v>394</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>181</v>
+        <v>395</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>83</v>
+        <v>396</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>83</v>
@@ -8759,21 +8749,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>83</v>
+        <v>398</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>83</v>
@@ -8785,7 +8775,7 @@
         <v>95</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>115</v>
@@ -8794,9 +8784,11 @@
         <v>116</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
       </c>
@@ -8832,25 +8824,23 @@
         <v>83</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>83</v>
+        <v>403</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>83</v>
@@ -8859,19 +8849,19 @@
         <v>106</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>83</v>
+        <v>404</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>351</v>
+        <v>405</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>83</v>
@@ -8879,14 +8869,16 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="D56" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8905,19 +8897,19 @@
         <v>95</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>115</v>
+        <v>411</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>116</v>
+        <v>412</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -8966,7 +8958,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8981,19 +8973,19 @@
         <v>106</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>83</v>
@@ -9001,18 +8993,18 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>405</v>
+        <v>83</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>94</v>
@@ -9027,20 +9019,18 @@
         <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>406</v>
+        <v>126</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>115</v>
+        <v>414</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>116</v>
+        <v>415</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>83</v>
       </c>
@@ -9076,17 +9066,19 @@
         <v>83</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AC57" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>220</v>
+        <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9101,19 +9093,19 @@
         <v>106</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>409</v>
+        <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>83</v>
@@ -9121,20 +9113,18 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>405</v>
+        <v>83</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>94</v>
@@ -9149,19 +9139,17 @@
         <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -9210,13 +9198,13 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>83</v>
@@ -9225,19 +9213,19 @@
         <v>106</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>83</v>
@@ -9245,10 +9233,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9256,7 +9244,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>94</v>
@@ -9268,20 +9256,18 @@
         <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>419</v>
+        <v>109</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>83</v>
@@ -9330,7 +9316,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>418</v>
+        <v>111</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9342,7 +9328,7 @@
         <v>83</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>83</v>
@@ -9351,13 +9337,13 @@
         <v>83</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>422</v>
+        <v>83</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>423</v>
+        <v>112</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>424</v>
+        <v>83</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>83</v>
@@ -9365,21 +9351,21 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>83</v>
+        <v>244</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>83</v>
@@ -9388,21 +9374,21 @@
         <v>83</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>426</v>
+        <v>114</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>427</v>
+        <v>245</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>83</v>
       </c>
@@ -9438,19 +9424,19 @@
         <v>83</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>425</v>
+        <v>120</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9462,22 +9448,22 @@
         <v>83</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>430</v>
+        <v>83</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>431</v>
+        <v>83</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>432</v>
+        <v>112</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>433</v>
+        <v>83</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>83</v>
@@ -9485,10 +9471,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9496,7 +9482,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>94</v>
@@ -9508,18 +9494,20 @@
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>108</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>109</v>
+        <v>361</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>83</v>
@@ -9568,7 +9556,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>111</v>
+        <v>364</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9577,10 +9565,10 @@
         <v>94</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>83</v>
+        <v>365</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>83</v>
@@ -9592,7 +9580,7 @@
         <v>83</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>83</v>
@@ -9603,21 +9591,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>251</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>83</v>
@@ -9626,19 +9614,19 @@
         <v>83</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>252</v>
+        <v>367</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>253</v>
+        <v>368</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9664,43 +9652,43 @@
         <v>83</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>83</v>
+        <v>371</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>120</v>
+        <v>372</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>83</v>
@@ -9712,7 +9700,7 @@
         <v>83</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>
@@ -9723,10 +9711,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9734,7 +9722,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>94</v>
@@ -9749,16 +9737,16 @@
         <v>95</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9808,7 +9796,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9817,7 +9805,7 @@
         <v>94</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>372</v>
+        <v>83</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>106</v>
@@ -9832,7 +9820,7 @@
         <v>83</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>181</v>
+        <v>378</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
@@ -9843,10 +9831,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9869,16 +9857,16 @@
         <v>95</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9904,13 +9892,13 @@
         <v>83</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>377</v>
+        <v>83</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>378</v>
+        <v>83</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>83</v>
@@ -9928,7 +9916,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9963,10 +9951,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9989,18 +9977,20 @@
         <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>241</v>
+        <v>436</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>381</v>
+        <v>115</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>382</v>
+        <v>116</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>83</v>
       </c>
@@ -10048,7 +10038,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -10057,7 +10047,7 @@
         <v>94</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>83</v>
+        <v>439</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>106</v>
@@ -10066,27 +10056,27 @@
         <v>83</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>83</v>
+        <v>440</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>83</v>
+        <v>441</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>385</v>
+        <v>442</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>83</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10106,21 +10096,23 @@
         <v>83</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>108</v>
+        <v>259</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>387</v>
+        <v>115</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>388</v>
+        <v>116</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>83</v>
       </c>
@@ -10144,13 +10136,13 @@
         <v>83</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>83</v>
+        <v>447</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>83</v>
+        <v>448</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>83</v>
@@ -10168,7 +10160,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>390</v>
+        <v>444</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10177,7 +10169,7 @@
         <v>94</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>83</v>
+        <v>449</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>106</v>
@@ -10189,10 +10181,10 @@
         <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>181</v>
+        <v>450</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
@@ -10203,21 +10195,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>83</v>
+        <v>452</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>83</v>
@@ -10226,10 +10218,10 @@
         <v>83</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>441</v>
+        <v>259</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>115</v>
@@ -10238,10 +10230,10 @@
         <v>116</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>83</v>
@@ -10266,13 +10258,13 @@
         <v>83</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>83</v>
+        <v>455</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>83</v>
+        <v>456</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>83</v>
@@ -10290,16 +10282,16 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>444</v>
+        <v>83</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>106</v>
@@ -10308,27 +10300,27 @@
         <v>83</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10336,7 +10328,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>94</v>
@@ -10351,19 +10343,19 @@
         <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>266</v>
+        <v>462</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>115</v>
+        <v>463</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>116</v>
+        <v>464</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>83</v>
@@ -10388,13 +10380,13 @@
         <v>83</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>452</v>
+        <v>83</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>453</v>
+        <v>83</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>83</v>
@@ -10412,16 +10404,16 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>454</v>
+        <v>83</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>106</v>
@@ -10433,10 +10425,10 @@
         <v>83</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>181</v>
+        <v>467</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>83</v>
@@ -10447,21 +10439,21 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>457</v>
+        <v>83</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>83</v>
@@ -10473,7 +10465,7 @@
         <v>83</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>266</v>
+        <v>108</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>115</v>
@@ -10481,12 +10473,8 @@
       <c r="M69" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="N69" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>459</v>
-      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>83</v>
       </c>
@@ -10510,13 +10498,13 @@
         <v>83</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>460</v>
+        <v>83</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>461</v>
+        <v>83</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>83</v>
@@ -10534,45 +10522,45 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>456</v>
+        <v>111</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>462</v>
+        <v>83</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>463</v>
+        <v>83</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>464</v>
+        <v>112</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>465</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10580,10 +10568,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>83</v>
@@ -10595,20 +10583,16 @@
         <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>467</v>
+        <v>114</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>468</v>
+        <v>115</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>83</v>
       </c>
@@ -10644,19 +10628,19 @@
         <v>83</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>466</v>
+        <v>120</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10668,7 +10652,7 @@
         <v>83</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>83</v>
@@ -10677,10 +10661,10 @@
         <v>83</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>472</v>
+        <v>83</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>473</v>
+        <v>83</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
@@ -10691,10 +10675,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10714,18 +10698,20 @@
         <v>83</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>108</v>
+        <v>472</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>115</v>
+        <v>473</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="N71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>83</v>
@@ -10774,7 +10760,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>111</v>
+        <v>475</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10786,7 +10772,7 @@
         <v>83</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>83</v>
@@ -10795,10 +10781,10 @@
         <v>83</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>112</v>
+        <v>476</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>83</v>
@@ -10809,10 +10795,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10823,7 +10809,7 @@
         <v>81</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>83</v>
@@ -10832,10 +10818,10 @@
         <v>83</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>114</v>
+        <v>410</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>115</v>
@@ -10880,31 +10866,31 @@
         <v>83</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>120</v>
+        <v>478</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>83</v>
@@ -10913,10 +10899,10 @@
         <v>83</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>83</v>
+        <v>479</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>83</v>
@@ -10927,10 +10913,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10938,7 +10924,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>94</v>
@@ -10953,17 +10939,15 @@
         <v>95</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>83</v>
@@ -11012,10 +10996,10 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>94</v>
@@ -11036,7 +11020,7 @@
         <v>181</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
@@ -11047,10 +11031,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11070,10 +11054,10 @@
         <v>83</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>415</v>
+        <v>259</v>
       </c>
       <c r="L74" t="s" s="2">
         <v>115</v>
@@ -11081,7 +11065,9 @@
       <c r="M74" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="N74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>83</v>
@@ -11106,13 +11092,13 @@
         <v>83</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>83</v>
+        <v>488</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>83</v>
+        <v>489</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>83</v>
@@ -11130,7 +11116,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11148,27 +11134,27 @@
         <v>83</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>83</v>
+        <v>490</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>181</v>
+        <v>491</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>83</v>
+        <v>493</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11176,7 +11162,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>94</v>
@@ -11188,19 +11174,23 @@
         <v>83</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>486</v>
+        <v>259</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>487</v>
+        <v>115</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>83</v>
       </c>
@@ -11224,13 +11214,13 @@
         <v>83</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>83</v>
+        <v>497</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>83</v>
+        <v>498</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>83</v>
@@ -11248,10 +11238,10 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>94</v>
@@ -11269,10 +11259,10 @@
         <v>83</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>181</v>
+        <v>499</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
@@ -11283,10 +11273,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11309,7 +11299,7 @@
         <v>83</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>266</v>
+        <v>502</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>115</v>
@@ -11318,7 +11308,7 @@
         <v>116</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11344,13 +11334,13 @@
         <v>83</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>493</v>
+        <v>83</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>494</v>
+        <v>83</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>83</v>
@@ -11368,7 +11358,7 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11386,27 +11376,27 @@
         <v>83</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>498</v>
+        <v>507</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11429,7 +11419,7 @@
         <v>83</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>266</v>
+        <v>509</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>115</v>
@@ -11438,11 +11428,9 @@
         <v>116</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>83</v>
       </c>
@@ -11466,13 +11454,13 @@
         <v>83</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>502</v>
+        <v>83</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>503</v>
+        <v>83</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>83</v>
@@ -11490,7 +11478,7 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -11508,27 +11496,27 @@
         <v>83</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>83</v>
+        <v>511</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>83</v>
+        <v>514</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11539,7 +11527,7 @@
         <v>81</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>83</v>
@@ -11551,7 +11539,7 @@
         <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>115</v>
@@ -11560,9 +11548,11 @@
         <v>116</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>83</v>
       </c>
@@ -11610,45 +11600,45 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>106</v>
+        <v>519</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>509</v>
+        <v>83</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>512</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11671,17 +11661,15 @@
         <v>83</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>514</v>
+        <v>108</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>83</v>
@@ -11730,7 +11718,7 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>513</v>
+        <v>111</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -11742,37 +11730,37 @@
         <v>83</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>516</v>
+        <v>83</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>517</v>
+        <v>83</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>518</v>
+        <v>112</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>519</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>83</v>
+        <v>244</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11791,20 +11779,18 @@
         <v>83</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>521</v>
+        <v>114</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>115</v>
+        <v>245</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>116</v>
+        <v>246</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>523</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>83</v>
       </c>
@@ -11852,7 +11838,7 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>520</v>
+        <v>120</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -11864,7 +11850,7 @@
         <v>83</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>524</v>
+        <v>121</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>83</v>
@@ -11873,10 +11859,10 @@
         <v>83</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>525</v>
+        <v>83</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>526</v>
+        <v>112</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>83</v>
@@ -11887,42 +11873,46 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>83</v>
+        <v>525</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>109</v>
+        <v>526</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>83</v>
       </c>
@@ -11970,19 +11960,19 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>111</v>
+        <v>529</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>83</v>
@@ -11994,7 +11984,7 @@
         <v>83</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
@@ -12005,21 +11995,21 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>251</v>
+        <v>83</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>83</v>
@@ -12031,17 +12021,15 @@
         <v>83</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>114</v>
+        <v>531</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>252</v>
+        <v>532</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>83</v>
@@ -12090,19 +12078,19 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>120</v>
+        <v>530</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>83</v>
+        <v>534</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>83</v>
@@ -12111,10 +12099,10 @@
         <v>83</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>83</v>
+        <v>535</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>112</v>
+        <v>536</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>83</v>
@@ -12125,46 +12113,42 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>530</v>
+        <v>83</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>114</v>
+        <v>531</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>83</v>
       </c>
@@ -12212,19 +12196,19 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI83" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AG83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AJ83" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>83</v>
@@ -12233,10 +12217,10 @@
         <v>83</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>83</v>
+        <v>535</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>181</v>
+        <v>540</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>83</v>
@@ -12247,10 +12231,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12273,16 +12257,20 @@
         <v>83</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>536</v>
+        <v>259</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>545</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>83</v>
       </c>
@@ -12306,13 +12294,13 @@
         <v>83</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>83</v>
+        <v>546</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>83</v>
+        <v>547</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>83</v>
@@ -12330,7 +12318,7 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12339,7 +12327,7 @@
         <v>94</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>539</v>
+        <v>83</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>106</v>
@@ -12348,13 +12336,13 @@
         <v>83</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>83</v>
+        <v>548</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>541</v>
+        <v>459</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>83</v>
@@ -12365,10 +12353,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12379,7 +12367,7 @@
         <v>81</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>83</v>
@@ -12391,16 +12379,20 @@
         <v>83</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>536</v>
+        <v>259</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+        <v>552</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>554</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>83</v>
       </c>
@@ -12424,13 +12416,13 @@
         <v>83</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>83</v>
+        <v>555</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>83</v>
+        <v>556</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>83</v>
@@ -12448,16 +12440,16 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>539</v>
+        <v>83</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>106</v>
@@ -12466,13 +12458,13 @@
         <v>83</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>83</v>
+        <v>548</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>545</v>
+        <v>459</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>83</v>
@@ -12483,10 +12475,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12509,19 +12501,17 @@
         <v>83</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>266</v>
+        <v>558</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>549</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>83</v>
@@ -12546,13 +12536,13 @@
         <v>83</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>551</v>
+        <v>83</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>552</v>
+        <v>83</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>83</v>
@@ -12570,7 +12560,7 @@
         <v>83</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -12588,13 +12578,13 @@
         <v>83</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>553</v>
+        <v>83</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>554</v>
+        <v>83</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>464</v>
+        <v>562</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>83</v>
@@ -12605,10 +12595,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12619,7 +12609,7 @@
         <v>81</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>83</v>
@@ -12631,20 +12621,16 @@
         <v>83</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>266</v>
+        <v>108</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>83</v>
       </c>
@@ -12668,13 +12654,13 @@
         <v>83</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>560</v>
+        <v>83</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>561</v>
+        <v>83</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>83</v>
@@ -12692,13 +12678,13 @@
         <v>83</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>83</v>
@@ -12710,13 +12696,13 @@
         <v>83</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>553</v>
+        <v>83</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>464</v>
+        <v>566</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>83</v>
@@ -12727,10 +12713,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12741,7 +12727,7 @@
         <v>81</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>83</v>
@@ -12750,21 +12736,21 @@
         <v>83</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>564</v>
+        <v>115</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>566</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>83</v>
       </c>
@@ -12812,13 +12798,13 @@
         <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>83</v>
@@ -12833,10 +12819,10 @@
         <v>83</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>83</v>
+        <v>570</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>83</v>
@@ -12847,10 +12833,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12861,7 +12847,7 @@
         <v>81</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>83</v>
@@ -12870,18 +12856,20 @@
         <v>83</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>108</v>
+        <v>573</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>569</v>
+        <v>115</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>83</v>
@@ -12930,13 +12918,13 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>83</v>
@@ -12951,10 +12939,10 @@
         <v>83</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>83</v>
@@ -12965,10 +12953,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12991,7 +12979,7 @@
         <v>95</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>573</v>
+        <v>516</v>
       </c>
       <c r="L90" t="s" s="2">
         <v>115</v>
@@ -13000,9 +12988,11 @@
         <v>116</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>577</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>578</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>83</v>
       </c>
@@ -13050,7 +13040,7 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -13071,10 +13061,10 @@
         <v>83</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>83</v>
@@ -13085,10 +13075,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13099,7 +13089,7 @@
         <v>81</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>83</v>
@@ -13108,20 +13098,18 @@
         <v>83</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>578</v>
+        <v>108</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>579</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>83</v>
@@ -13170,19 +13158,19 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>577</v>
+        <v>111</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>83</v>
@@ -13191,10 +13179,10 @@
         <v>83</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>575</v>
+        <v>83</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>580</v>
+        <v>112</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>83</v>
@@ -13205,14 +13193,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>83</v>
+        <v>244</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13228,23 +13216,21 @@
         <v>83</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>521</v>
+        <v>114</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>115</v>
+        <v>245</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>116</v>
+        <v>246</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>583</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>83</v>
       </c>
@@ -13292,7 +13278,7 @@
         <v>83</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>581</v>
+        <v>120</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
@@ -13304,7 +13290,7 @@
         <v>83</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>83</v>
@@ -13313,10 +13299,10 @@
         <v>83</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>584</v>
+        <v>83</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>585</v>
+        <v>112</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>83</v>
@@ -13327,42 +13313,46 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>83</v>
+        <v>525</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>109</v>
+        <v>526</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>83</v>
       </c>
@@ -13410,19 +13400,19 @@
         <v>83</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>111</v>
+        <v>529</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>83</v>
@@ -13434,7 +13424,7 @@
         <v>83</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>83</v>
@@ -13445,21 +13435,21 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>251</v>
+        <v>83</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>83</v>
@@ -13468,21 +13458,23 @@
         <v>83</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>114</v>
+        <v>259</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>252</v>
+        <v>585</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>253</v>
+        <v>586</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O94" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>83</v>
       </c>
@@ -13506,13 +13498,13 @@
         <v>83</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>83</v>
+        <v>588</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>83</v>
+        <v>589</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>83</v>
@@ -13530,34 +13522,34 @@
         <v>83</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>120</v>
+        <v>584</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>83</v>
+        <v>590</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>83</v>
+        <v>344</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>112</v>
+        <v>345</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>83</v>
+        <v>346</v>
       </c>
       <c r="AP94" t="s" s="2">
         <v>83</v>
@@ -13565,45 +13557,45 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>530</v>
+        <v>83</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J95" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>114</v>
+        <v>436</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>531</v>
+        <v>592</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>532</v>
+        <v>593</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>254</v>
+        <v>594</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>533</v>
+        <v>438</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>83</v>
@@ -13652,45 +13644,45 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>534</v>
+        <v>591</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>83</v>
+        <v>595</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>83</v>
+        <v>441</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>181</v>
+        <v>442</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>83</v>
+        <v>443</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13698,7 +13690,7 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>94</v>
@@ -13710,22 +13702,22 @@
         <v>83</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>347</v>
+        <v>446</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>83</v>
@@ -13750,13 +13742,13 @@
         <v>83</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>593</v>
+        <v>447</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>594</v>
+        <v>448</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>83</v>
@@ -13774,16 +13766,16 @@
         <v>83</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>83</v>
+        <v>449</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>106</v>
@@ -13792,16 +13784,16 @@
         <v>83</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>595</v>
+        <v>83</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>351</v>
+        <v>181</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>352</v>
+        <v>450</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>353</v>
+        <v>83</v>
       </c>
       <c r="AP96" t="s" s="2">
         <v>83</v>
@@ -13809,21 +13801,21 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>83</v>
+        <v>452</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>83</v>
@@ -13832,22 +13824,22 @@
         <v>83</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>441</v>
+        <v>259</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>599</v>
+        <v>453</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>83</v>
@@ -13872,13 +13864,13 @@
         <v>83</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>83</v>
+        <v>455</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>83</v>
+        <v>456</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>83</v>
@@ -13896,13 +13888,13 @@
         <v>83</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>83</v>
@@ -13914,27 +13906,27 @@
         <v>83</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>600</v>
+        <v>457</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13945,7 +13937,7 @@
         <v>81</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>83</v>
@@ -13957,19 +13949,19 @@
         <v>83</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>266</v>
+        <v>84</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>604</v>
+        <v>517</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>451</v>
+        <v>518</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>83</v>
@@ -13994,13 +13986,13 @@
         <v>83</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>452</v>
+        <v>83</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>453</v>
+        <v>83</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>83</v>
@@ -14018,16 +14010,16 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>454</v>
+        <v>83</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>106</v>
@@ -14039,259 +14031,15 @@
         <v>83</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>181</v>
+        <v>520</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>455</v>
+        <v>521</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP98" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="P99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP99" t="s" s="2">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="P100" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP100" t="s" s="2">
         <v>83</v>
       </c>
     </row>

--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-observation.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-observation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3767" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3462" uniqueCount="554">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -282,7 +282,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ch-obs-1:In case of a 'CHANGE', reference shall be made to an entry containing the changes. {code.coding.exists(system='urn:oid:1.3.6.1.4.1.19376.1.9.2.1' and code='CHANGE') implies extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationstatement-changed' or url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationrequest-changed').exists()}only-one-obs-ref:A single reference (to either a medication treatment plan, prescription or dispense) SHALL be present {(extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-treatmentplan').exists() xor extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-prescription').exists() xor extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-dispense').exists()) and (extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-treatmentplan').exists() and extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-prescription').exists() and extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-dispense').exists()).not()}mtp-entry-only-with-ref:A changed MedicationStatement SHALL only be present with a medication treatment plan reference, in a PADV CHANGE {(extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-treatmentplan').exists() and extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationstatement-changed').exists() and code.coding.single().code = 'CHANGE') or extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationstatement-changed').exists().not()}pre-entry-only-with-ref:A changed MedicationRequest SHALL only be present with a medication request reference, in a PADV CHANGE {(extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-prescription').exists() and extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationrequest-changed').exists() and code.coding.single().code = 'CHANGE') or extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationrequest-changed').exists().not()}treatment-plan-id-reference-matches-statement-changed-reference:If the observation includes a medication statement changed reference, it SHALL match the treatment plan id reference {extension('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationstatement-changed').exists() implies (extension('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationstatement-changed').single().value as Reference).reference = (extension('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-treatmentplan').extension('id').single().value as Identifier).value}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ch-obs-1:In case of a 'CHANGE', reference SHALL be made to an entry containing the changes. {code.coding.exists(system='urn:oid:1.3.6.1.4.1.19376.1.9.2.1' and code='CHANGE') implies extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationstatement-changed' or url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationrequest-changed').exists()}only-one-obs-ref:A single reference (to either a medication treatment plan, prescription or dispense) SHALL be present {(extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-treatmentplan').exists() xor extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-prescription').exists() xor extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-dispense').exists()) and (extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-treatmentplan').exists() and extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-prescription').exists() and extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-dispense').exists()).not()}mtp-entry-only-with-ref:A changed MedicationStatement SHALL only be present with a medication treatment plan reference, in a PADV CHANGE {(extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-treatmentplan').exists() and extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationstatement-changed').exists() and code.coding.single().code = 'CHANGE') or extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationstatement-changed').exists().not()}pre-entry-only-with-ref:A changed MedicationRequest SHALL only be present with a medication request reference, in a PADV CHANGE {(extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-prescription').exists() and extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationrequest-changed').exists() and code.coding.single().code = 'CHANGE') or extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationrequest-changed').exists().not()}treatment-plan-id-reference-matches-statement-changed-reference:If the observation includes a medication statement changed reference, it SHALL match the treatment plan id reference {extension('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationstatement-changed').exists() implies (extension('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationstatement-changed').single().value as Reference).reference = (extension('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-treatmentplan').extension('id').single().value as Identifier).value}prescription-id-reference-matches-request-changed-reference:If the observation includes a medication request changed reference, it SHALL match the prescription id reference {extension('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationrequest-changed').exists() implies (extension('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationrequest-changed').single().value as Reference).reference = (extension('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-prescription').extension('id').single().value as Identifier).value}</t>
   </si>
   <si>
     <t>Event</t>
@@ -433,7 +433,7 @@
     <t>Observation.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -465,7 +465,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -483,7 +483,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -527,7 +527,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -740,446 +740,289 @@
     <t>Observation.modifierExtension</t>
   </si>
   <si>
-    <t>All modifiers SHALL be documented in the profile, in order to be usable.</t>
+    <t>...All modifiers SHALL be documented in the profile, in order to be usable.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
   </si>
   <si>
     <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-uuid-identifier}
+</t>
+  </si>
+  <si>
+    <t>Observation Identifier</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
+</t>
+  </si>
+  <si>
+    <t>Observation code</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/ihe-pharmaceuticaladvicestatuslist</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-patient) &lt;&lt;referenced, bundled&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
+  </si>
+  <si>
+    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
+  </si>
+  <si>
+    <t>Observations have no value if you don't know who or what they're about.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>participation[typeCode=RTGT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Observation.subject.id</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Observation.subject.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Observation.subject.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Observation.subject.identifier</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
 </t>
-  </si>
-  <si>
-    <t>Observation Identifier</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Observation.identifier.id</t>
-  </si>
-  <si>
-    <t>Observation.identifier.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Observation.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Observation.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Observation.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>urn:ietf:rfc:3986</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>Observation.identifier.value</t>
-  </si>
-  <si>
-    <t>Identifier value as UUID</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>Observation.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>Observation.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Observation.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
-</t>
-  </si>
-  <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>final</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Observation code</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-term/ValueSet/ihe-pharmaceuticaladvicestatuslist</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-patient) &lt;&lt;referenced, bundled&gt;&gt;
-</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
-  </si>
-  <si>
-    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
-  </si>
-  <si>
-    <t>Observations have no value if you don't know who or what they're about.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>participation[typeCode=RTGT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Observation.subject.id</t>
-  </si>
-  <si>
-    <t>Observation.subject.extension</t>
-  </si>
-  <si>
-    <t>Observation.subject.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Observation.subject.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Observation.subject.identifier</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -1218,7 +1061,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1235,7 +1078,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1333,7 +1176,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|RelatedPerson)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson)
 </t>
   </si>
   <si>
@@ -1418,7 +1261,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1444,7 +1287,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1493,7 +1336,7 @@
     <t>Observation.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+    <t>Reference(Practitioner|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
 string</t>
   </si>
   <si>
@@ -1547,7 +1390,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1574,7 +1417,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1586,7 +1429,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1608,7 +1451,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1679,7 +1522,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1729,7 +1572,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1762,7 +1605,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1799,7 +1642,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1815,7 +1658,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1864,7 +1707,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -2221,7 +2064,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP98"/>
+  <dimension ref="A1:AP90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2230,17 +2073,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.9921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="29.10546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.43359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="147.890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="167.01171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2249,28 +2092,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.1171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.96875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6108,14 +5951,14 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>83</v>
+        <v>243</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>83</v>
@@ -6124,19 +5967,21 @@
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>108</v>
+        <v>244</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>83</v>
       </c>
@@ -6184,31 +6029,31 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>111</v>
+        <v>242</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>83</v>
+        <v>246</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>83</v>
+        <v>247</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>112</v>
+        <v>248</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -6219,14 +6064,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6242,19 +6087,19 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>114</v>
+        <v>251</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>245</v>
+        <v>115</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>246</v>
+        <v>116</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6292,19 +6137,19 @@
         <v>83</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>120</v>
+        <v>249</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6316,19 +6161,19 @@
         <v>83</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>83</v>
+        <v>254</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>112</v>
+        <v>255</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
@@ -6339,10 +6184,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6350,7 +6195,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>94</v>
@@ -6368,23 +6213,23 @@
         <v>158</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>83</v>
+        <v>261</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>83</v>
@@ -6402,13 +6247,13 @@
         <v>83</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>83</v>
@@ -6429,7 +6274,7 @@
         <v>256</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>94</v>
@@ -6441,19 +6286,19 @@
         <v>106</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>83</v>
+        <v>265</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>83</v>
+        <v>266</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>181</v>
+        <v>267</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>83</v>
+        <v>269</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>83</v>
@@ -6461,10 +6306,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6475,7 +6320,7 @@
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>83</v>
@@ -6484,22 +6329,22 @@
         <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>260</v>
+        <v>115</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>261</v>
+        <v>116</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6524,13 +6369,13 @@
         <v>83</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>83</v>
@@ -6548,13 +6393,13 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>83</v>
@@ -6569,13 +6414,13 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>267</v>
+        <v>83</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>83</v>
+        <v>277</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>83</v>
@@ -6583,14 +6428,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>83</v>
+        <v>279</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6609,32 +6454,32 @@
         <v>95</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>273</v>
+        <v>83</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>274</v>
+        <v>83</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>83</v>
@@ -6646,13 +6491,11 @@
         <v>83</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>83</v>
+        <v>284</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>83</v>
@@ -6670,10 +6513,10 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>94</v>
@@ -6685,30 +6528,30 @@
         <v>106</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>83</v>
+        <v>285</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>83</v>
+        <v>286</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>83</v>
+        <v>289</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>83</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6716,7 +6559,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>94</v>
@@ -6731,18 +6574,20 @@
         <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>108</v>
+        <v>292</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
       </c>
@@ -6754,7 +6599,7 @@
         <v>83</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>282</v>
+        <v>83</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>83</v>
@@ -6790,7 +6635,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6805,19 +6650,19 @@
         <v>106</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>83</v>
+        <v>297</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>83</v>
+        <v>300</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>83</v>
@@ -6825,10 +6670,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6848,16 +6693,16 @@
         <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>287</v>
+        <v>108</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>288</v>
+        <v>109</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>289</v>
+        <v>110</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6908,7 +6753,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>290</v>
+        <v>111</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6920,7 +6765,7 @@
         <v>83</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>83</v>
@@ -6929,10 +6774,10 @@
         <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>291</v>
+        <v>83</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>292</v>
+        <v>112</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -6943,21 +6788,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>83</v>
@@ -6966,19 +6811,19 @@
         <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>294</v>
+        <v>114</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7016,31 +6861,31 @@
         <v>83</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>298</v>
+        <v>120</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>83</v>
@@ -7049,10 +6894,10 @@
         <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>299</v>
+        <v>83</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>300</v>
+        <v>112</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -7063,21 +6908,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>302</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>83</v>
@@ -7089,18 +6934,18 @@
         <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>303</v>
+        <v>108</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>115</v>
+        <v>308</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>83</v>
       </c>
@@ -7148,31 +6993,31 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>83</v>
+        <v>312</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>305</v>
+        <v>83</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>306</v>
+        <v>83</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>307</v>
+        <v>181</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
@@ -7183,21 +7028,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>309</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>83</v>
@@ -7209,16 +7054,16 @@
         <v>95</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>310</v>
+        <v>130</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>115</v>
+        <v>314</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>116</v>
+        <v>315</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7244,13 +7089,13 @@
         <v>83</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>83</v>
+        <v>317</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>83</v>
+        <v>318</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>83</v>
@@ -7268,13 +7113,13 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>83</v>
@@ -7283,16 +7128,16 @@
         <v>106</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>312</v>
+        <v>83</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>313</v>
+        <v>83</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>314</v>
+        <v>181</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -7303,10 +7148,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7314,7 +7159,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>94</v>
@@ -7323,32 +7168,30 @@
         <v>83</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>158</v>
+        <v>321</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>320</v>
+        <v>83</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>83</v>
@@ -7366,13 +7209,13 @@
         <v>83</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>253</v>
+        <v>83</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>321</v>
+        <v>83</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>322</v>
+        <v>83</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>83</v>
@@ -7390,10 +7233,10 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>94</v>
@@ -7405,19 +7248,19 @@
         <v>106</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>323</v>
+        <v>83</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>324</v>
+        <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>325</v>
+        <v>83</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>326</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>327</v>
+        <v>83</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>83</v>
@@ -7425,10 +7268,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7439,7 +7282,7 @@
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>83</v>
@@ -7448,23 +7291,21 @@
         <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>259</v>
+        <v>108</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>115</v>
+        <v>328</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>116</v>
+        <v>329</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O44" t="s" s="2">
         <v>330</v>
       </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>83</v>
       </c>
@@ -7488,37 +7329,37 @@
         <v>83</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>328</v>
-      </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>83</v>
@@ -7536,10 +7377,10 @@
         <v>83</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>333</v>
+        <v>181</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>334</v>
+        <v>83</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>83</v>
@@ -7547,21 +7388,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>336</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>83</v>
@@ -7573,20 +7414,18 @@
         <v>95</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>259</v>
+        <v>333</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>337</v>
+        <v>115</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>338</v>
+        <v>116</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>83</v>
       </c>
@@ -7610,11 +7449,13 @@
         <v>83</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="Y45" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z45" t="s" s="2">
-        <v>341</v>
+        <v>83</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>83</v>
@@ -7632,13 +7473,13 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>83</v>
@@ -7647,34 +7488,34 @@
         <v>106</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>342</v>
+        <v>83</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>343</v>
+        <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>346</v>
+        <v>300</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>347</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>83</v>
+        <v>337</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7693,19 +7534,19 @@
         <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>350</v>
+        <v>115</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>351</v>
+        <v>116</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
@@ -7754,7 +7595,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7769,19 +7610,19 @@
         <v>106</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>83</v>
@@ -7789,14 +7630,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>83</v>
+        <v>346</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7812,19 +7653,23 @@
         <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>108</v>
+        <v>347</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>83</v>
       </c>
@@ -7860,19 +7705,17 @@
         <v>83</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>111</v>
+        <v>345</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7884,22 +7727,22 @@
         <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>83</v>
+        <v>352</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>83</v>
+        <v>353</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>112</v>
+        <v>354</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>83</v>
+        <v>355</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>83</v>
@@ -7907,21 +7750,23 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="D48" t="s" s="2">
-        <v>244</v>
+        <v>346</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>83</v>
@@ -7930,21 +7775,23 @@
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>114</v>
+        <v>358</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>245</v>
+        <v>359</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>246</v>
+        <v>360</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
       </c>
@@ -7980,46 +7827,46 @@
         <v>83</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>120</v>
+        <v>345</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>83</v>
+        <v>352</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>83</v>
+        <v>353</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>112</v>
+        <v>354</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>83</v>
+        <v>355</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>83</v>
@@ -8027,10 +7874,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8053,16 +7900,16 @@
         <v>95</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8112,7 +7959,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8121,7 +7968,7 @@
         <v>94</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>365</v>
+        <v>83</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>106</v>
@@ -8133,13 +7980,13 @@
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>83</v>
+        <v>365</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>181</v>
+        <v>366</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>83</v>
+        <v>367</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>83</v>
@@ -8147,10 +7994,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8158,7 +8005,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>94</v>
@@ -8173,18 +8020,18 @@
         <v>95</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>130</v>
+        <v>369</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
       </c>
@@ -8208,13 +8055,13 @@
         <v>83</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>370</v>
+        <v>83</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>371</v>
+        <v>83</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>83</v>
@@ -8232,13 +8079,13 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>83</v>
@@ -8247,19 +8094,19 @@
         <v>106</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>83</v>
+        <v>373</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>83</v>
+        <v>374</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>181</v>
+        <v>375</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>83</v>
+        <v>376</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>83</v>
@@ -8267,10 +8114,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8290,20 +8137,18 @@
         <v>83</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>374</v>
+        <v>109</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -8352,7 +8197,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>377</v>
+        <v>111</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8364,7 +8209,7 @@
         <v>83</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>83</v>
@@ -8376,7 +8221,7 @@
         <v>83</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>378</v>
+        <v>112</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8387,21 +8232,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>83</v>
@@ -8410,19 +8255,19 @@
         <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>380</v>
+        <v>304</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>381</v>
+        <v>305</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>382</v>
+        <v>306</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8460,31 +8305,31 @@
         <v>83</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>383</v>
+        <v>120</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>83</v>
@@ -8496,7 +8341,7 @@
         <v>83</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8507,10 +8352,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8518,10 +8363,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>83</v>
@@ -8533,16 +8378,16 @@
         <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>385</v>
+        <v>108</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>115</v>
+        <v>308</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>116</v>
+        <v>309</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8592,16 +8437,16 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>384</v>
+        <v>311</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>83</v>
+        <v>312</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>106</v>
@@ -8613,13 +8458,13 @@
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>344</v>
+        <v>83</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>387</v>
+        <v>181</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>357</v>
+        <v>83</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>83</v>
@@ -8627,14 +8472,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>389</v>
+        <v>83</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8653,20 +8498,18 @@
         <v>95</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>390</v>
+        <v>130</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>115</v>
+        <v>314</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>116</v>
+        <v>315</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>83</v>
       </c>
@@ -8690,13 +8533,13 @@
         <v>83</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>83</v>
+        <v>317</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>83</v>
+        <v>318</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>83</v>
@@ -8714,7 +8557,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>388</v>
+        <v>319</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8729,19 +8572,19 @@
         <v>106</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>393</v>
+        <v>83</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>394</v>
+        <v>83</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>395</v>
+        <v>181</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>396</v>
+        <v>83</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>83</v>
@@ -8749,14 +8592,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>398</v>
+        <v>83</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8775,20 +8618,18 @@
         <v>95</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>399</v>
+        <v>321</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>115</v>
+        <v>322</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>116</v>
+        <v>323</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>83</v>
       </c>
@@ -8824,17 +8665,19 @@
         <v>83</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AC55" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>403</v>
+        <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>397</v>
+        <v>325</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8849,19 +8692,19 @@
         <v>106</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>404</v>
+        <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>405</v>
+        <v>83</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>406</v>
+        <v>326</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>407</v>
+        <v>83</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>83</v>
@@ -8869,16 +8712,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>398</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8897,20 +8738,18 @@
         <v>95</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>410</v>
+        <v>108</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>411</v>
+        <v>328</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>412</v>
+        <v>329</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>83</v>
       </c>
@@ -8958,7 +8797,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>397</v>
+        <v>331</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8973,19 +8812,19 @@
         <v>106</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>404</v>
+        <v>83</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>405</v>
+        <v>83</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>406</v>
+        <v>181</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>407</v>
+        <v>83</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>83</v>
@@ -8993,10 +8832,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9004,7 +8843,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>94</v>
@@ -9019,18 +8858,20 @@
         <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>126</v>
+        <v>384</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>414</v>
+        <v>115</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>415</v>
+        <v>116</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
       </c>
@@ -9078,7 +8919,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9087,7 +8928,7 @@
         <v>94</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>83</v>
+        <v>387</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>106</v>
@@ -9096,27 +8937,27 @@
         <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>83</v>
+        <v>388</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>419</v>
+        <v>83</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>83</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9124,7 +8965,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>94</v>
@@ -9136,20 +8977,22 @@
         <v>83</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>421</v>
+        <v>271</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>422</v>
+        <v>115</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="O58" t="s" s="2">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -9174,13 +9017,13 @@
         <v>83</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>83</v>
+        <v>395</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>83</v>
+        <v>396</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>83</v>
@@ -9198,34 +9041,34 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>83</v>
+        <v>397</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>425</v>
+        <v>83</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>426</v>
+        <v>181</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>427</v>
+        <v>398</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>428</v>
+        <v>83</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>83</v>
@@ -9233,21 +9076,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>83</v>
+        <v>400</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>83</v>
@@ -9259,16 +9102,20 @@
         <v>83</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>108</v>
+        <v>271</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>83</v>
       </c>
@@ -9292,13 +9139,13 @@
         <v>83</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>83</v>
+        <v>403</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>83</v>
+        <v>404</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>83</v>
@@ -9316,56 +9163,56 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>111</v>
+        <v>399</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>83</v>
+        <v>405</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>83</v>
+        <v>406</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>112</v>
+        <v>407</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>83</v>
+        <v>408</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>244</v>
+        <v>83</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>83</v>
@@ -9377,18 +9224,20 @@
         <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>114</v>
+        <v>410</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>245</v>
+        <v>411</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>246</v>
+        <v>412</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>83</v>
       </c>
@@ -9424,19 +9273,19 @@
         <v>83</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>120</v>
+        <v>409</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9448,7 +9297,7 @@
         <v>83</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>83</v>
@@ -9457,10 +9306,10 @@
         <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>83</v>
+        <v>415</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>112</v>
+        <v>416</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>83</v>
@@ -9471,10 +9320,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9482,7 +9331,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>94</v>
@@ -9494,20 +9343,18 @@
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>108</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>361</v>
+        <v>115</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>83</v>
@@ -9556,7 +9403,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>364</v>
+        <v>111</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9565,10 +9412,10 @@
         <v>94</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>365</v>
+        <v>83</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>83</v>
@@ -9580,7 +9427,7 @@
         <v>83</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>83</v>
@@ -9591,10 +9438,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9605,7 +9452,7 @@
         <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>83</v>
@@ -9614,20 +9461,18 @@
         <v>83</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>367</v>
+        <v>115</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>83</v>
@@ -9652,43 +9497,43 @@
         <v>83</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>370</v>
+        <v>83</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>371</v>
+        <v>83</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>372</v>
+        <v>120</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>83</v>
@@ -9700,7 +9545,7 @@
         <v>83</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>
@@ -9711,10 +9556,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9737,16 +9582,16 @@
         <v>95</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>234</v>
+        <v>420</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>375</v>
+        <v>116</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9796,7 +9641,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9817,10 +9662,10 @@
         <v>83</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
@@ -9831,10 +9676,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9857,17 +9702,15 @@
         <v>95</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>108</v>
+        <v>358</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>380</v>
+        <v>115</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>83</v>
@@ -9916,7 +9759,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9937,10 +9780,10 @@
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>181</v>
+        <v>427</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -9951,10 +9794,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9962,7 +9805,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>94</v>
@@ -9977,20 +9820,16 @@
         <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>115</v>
+        <v>430</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>83</v>
       </c>
@@ -10038,16 +9877,16 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>439</v>
+        <v>83</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>106</v>
@@ -10056,27 +9895,27 @@
         <v>83</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>440</v>
+        <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>441</v>
+        <v>181</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>443</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10099,7 +9938,7 @@
         <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>115</v>
@@ -10108,11 +9947,9 @@
         <v>116</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>83</v>
       </c>
@@ -10136,13 +9973,13 @@
         <v>83</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>83</v>
@@ -10160,7 +9997,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10169,7 +10006,7 @@
         <v>94</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>449</v>
+        <v>83</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>106</v>
@@ -10178,38 +10015,38 @@
         <v>83</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>83</v>
+        <v>438</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>181</v>
+        <v>439</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>83</v>
+        <v>441</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>452</v>
+        <v>83</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>83</v>
@@ -10221,7 +10058,7 @@
         <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>115</v>
@@ -10230,10 +10067,10 @@
         <v>116</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>83</v>
@@ -10258,13 +10095,13 @@
         <v>83</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>83</v>
@@ -10282,13 +10119,13 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>83</v>
@@ -10300,27 +10137,27 @@
         <v>83</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>457</v>
+        <v>83</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>460</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10328,7 +10165,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>94</v>
@@ -10343,20 +10180,18 @@
         <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>463</v>
+        <v>115</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>464</v>
+        <v>116</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>83</v>
       </c>
@@ -10404,13 +10239,13 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>83</v>
@@ -10422,27 +10257,27 @@
         <v>83</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>83</v>
+        <v>452</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>83</v>
+        <v>455</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10465,7 +10300,7 @@
         <v>83</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>108</v>
+        <v>457</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>115</v>
@@ -10473,7 +10308,9 @@
       <c r="M69" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="N69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>83</v>
@@ -10522,7 +10359,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>111</v>
+        <v>456</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10534,33 +10371,33 @@
         <v>83</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>83</v>
+        <v>459</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>83</v>
+        <v>460</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>112</v>
+        <v>461</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>83</v>
+        <v>462</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10583,7 +10420,7 @@
         <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>114</v>
+        <v>464</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>115</v>
@@ -10591,8 +10428,12 @@
       <c r="M70" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>83</v>
       </c>
@@ -10628,19 +10469,19 @@
         <v>83</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>120</v>
+        <v>463</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10652,7 +10493,7 @@
         <v>83</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>121</v>
+        <v>467</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>83</v>
@@ -10661,10 +10502,10 @@
         <v>83</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>83</v>
+        <v>468</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>83</v>
+        <v>469</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
@@ -10675,10 +10516,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10698,20 +10539,18 @@
         <v>83</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>472</v>
+        <v>108</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>473</v>
+        <v>109</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>83</v>
@@ -10760,7 +10599,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>475</v>
+        <v>111</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10772,7 +10611,7 @@
         <v>83</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>83</v>
@@ -10781,10 +10620,10 @@
         <v>83</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>476</v>
+        <v>112</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>83</v>
@@ -10795,21 +10634,21 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>83</v>
@@ -10818,18 +10657,20 @@
         <v>83</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>410</v>
+        <v>114</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>115</v>
+        <v>304</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>83</v>
@@ -10878,19 +10719,19 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>478</v>
+        <v>120</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>83</v>
@@ -10899,10 +10740,10 @@
         <v>83</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>479</v>
+        <v>112</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>83</v>
@@ -10913,42 +10754,46 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>83</v>
+        <v>473</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>481</v>
+        <v>114</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>83</v>
       </c>
@@ -10996,19 +10841,19 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>83</v>
@@ -11017,10 +10862,10 @@
         <v>83</v>
       </c>
       <c r="AM73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
@@ -11031,10 +10876,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11057,17 +10902,15 @@
         <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>259</v>
+        <v>479</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>115</v>
+        <v>480</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>83</v>
@@ -11092,13 +10935,13 @@
         <v>83</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>488</v>
+        <v>83</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>489</v>
+        <v>83</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>83</v>
@@ -11116,7 +10959,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11125,7 +10968,7 @@
         <v>94</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>83</v>
+        <v>482</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>106</v>
@@ -11134,27 +10977,27 @@
         <v>83</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>490</v>
+        <v>83</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>493</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11177,20 +11020,16 @@
         <v>83</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>259</v>
+        <v>479</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>115</v>
+        <v>486</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>83</v>
       </c>
@@ -11214,13 +11053,13 @@
         <v>83</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>497</v>
+        <v>83</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>498</v>
+        <v>83</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>83</v>
@@ -11238,7 +11077,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11247,7 +11086,7 @@
         <v>94</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>83</v>
+        <v>482</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>106</v>
@@ -11259,10 +11098,10 @@
         <v>83</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
@@ -11273,10 +11112,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11299,18 +11138,20 @@
         <v>83</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>502</v>
+        <v>271</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>115</v>
+        <v>490</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>116</v>
+        <v>491</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>493</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>83</v>
       </c>
@@ -11334,13 +11175,13 @@
         <v>83</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>83</v>
+        <v>494</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>83</v>
+        <v>495</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>83</v>
@@ -11358,7 +11199,7 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11376,27 +11217,27 @@
         <v>83</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>506</v>
+        <v>407</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>507</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11407,7 +11248,7 @@
         <v>81</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>83</v>
@@ -11419,18 +11260,20 @@
         <v>83</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>509</v>
+        <v>271</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>115</v>
+        <v>499</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>116</v>
+        <v>500</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>83</v>
       </c>
@@ -11454,13 +11297,13 @@
         <v>83</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>83</v>
+        <v>503</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>83</v>
+        <v>504</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>83</v>
@@ -11478,13 +11321,13 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>83</v>
@@ -11496,27 +11339,27 @@
         <v>83</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>513</v>
+        <v>407</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>514</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11527,7 +11370,7 @@
         <v>81</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>83</v>
@@ -11539,19 +11382,17 @@
         <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>115</v>
+        <v>507</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>83</v>
@@ -11600,19 +11441,19 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>519</v>
+        <v>106</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>83</v>
@@ -11621,10 +11462,10 @@
         <v>83</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>520</v>
+        <v>83</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
@@ -11635,10 +11476,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11664,10 +11505,10 @@
         <v>108</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>109</v>
+        <v>512</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>110</v>
+        <v>513</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11718,7 +11559,7 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>111</v>
+        <v>511</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -11730,7 +11571,7 @@
         <v>83</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>83</v>
@@ -11739,10 +11580,10 @@
         <v>83</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>83</v>
+        <v>483</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>112</v>
+        <v>514</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>83</v>
@@ -11753,14 +11594,14 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>244</v>
+        <v>83</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11776,19 +11617,19 @@
         <v>83</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>114</v>
+        <v>516</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>245</v>
+        <v>115</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>246</v>
+        <v>116</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>247</v>
+        <v>517</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11838,7 +11679,7 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>120</v>
+        <v>515</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -11850,7 +11691,7 @@
         <v>83</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>83</v>
@@ -11859,10 +11700,10 @@
         <v>83</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>83</v>
+        <v>518</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>112</v>
+        <v>519</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>83</v>
@@ -11873,14 +11714,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>525</v>
+        <v>83</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11893,26 +11734,24 @@
         <v>83</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>114</v>
+        <v>521</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>526</v>
+        <v>115</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>527</v>
+        <v>116</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>83</v>
       </c>
@@ -11960,7 +11799,7 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -11972,7 +11811,7 @@
         <v>83</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>83</v>
@@ -11981,10 +11820,10 @@
         <v>83</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>83</v>
+        <v>518</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>181</v>
+        <v>523</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
@@ -11995,10 +11834,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12009,7 +11848,7 @@
         <v>81</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>83</v>
@@ -12018,19 +11857,23 @@
         <v>83</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>531</v>
+        <v>464</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>532</v>
+        <v>115</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>83</v>
       </c>
@@ -12078,16 +11921,16 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>534</v>
+        <v>83</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>106</v>
@@ -12099,10 +11942,10 @@
         <v>83</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>83</v>
@@ -12113,10 +11956,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12139,13 +11982,13 @@
         <v>83</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>531</v>
+        <v>108</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>538</v>
+        <v>109</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>539</v>
+        <v>110</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12196,7 +12039,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>537</v>
+        <v>111</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12205,10 +12048,10 @@
         <v>94</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>534</v>
+        <v>83</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>83</v>
@@ -12217,10 +12060,10 @@
         <v>83</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>535</v>
+        <v>83</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>540</v>
+        <v>112</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>83</v>
@@ -12231,21 +12074,21 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>83</v>
@@ -12257,20 +12100,18 @@
         <v>83</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>259</v>
+        <v>114</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>542</v>
+        <v>304</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>543</v>
+        <v>305</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>545</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>83</v>
       </c>
@@ -12294,13 +12135,13 @@
         <v>83</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>546</v>
+        <v>83</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>547</v>
+        <v>83</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>83</v>
@@ -12318,31 +12159,31 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>541</v>
+        <v>120</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>548</v>
+        <v>83</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>549</v>
+        <v>83</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>459</v>
+        <v>112</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>83</v>
@@ -12353,14 +12194,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>83</v>
+        <v>473</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12373,25 +12214,25 @@
         <v>83</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>259</v>
+        <v>114</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>551</v>
+        <v>474</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>552</v>
+        <v>475</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>553</v>
+        <v>306</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>554</v>
+        <v>476</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>83</v>
@@ -12416,13 +12257,13 @@
         <v>83</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>555</v>
+        <v>83</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>556</v>
+        <v>83</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>83</v>
@@ -12440,7 +12281,7 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>550</v>
+        <v>477</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -12452,19 +12293,19 @@
         <v>83</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>548</v>
+        <v>83</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>549</v>
+        <v>83</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>459</v>
+        <v>181</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>83</v>
@@ -12475,10 +12316,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12486,7 +12327,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>94</v>
@@ -12498,20 +12339,22 @@
         <v>83</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>558</v>
+        <v>271</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="O86" t="s" s="2">
-        <v>561</v>
+        <v>283</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>83</v>
@@ -12536,13 +12379,13 @@
         <v>83</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>83</v>
+        <v>536</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>83</v>
+        <v>537</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>83</v>
@@ -12560,10 +12403,10 @@
         <v>83</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>94</v>
@@ -12578,16 +12421,16 @@
         <v>83</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>83</v>
+        <v>538</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>83</v>
+        <v>287</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>562</v>
+        <v>288</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>83</v>
+        <v>289</v>
       </c>
       <c r="AP86" t="s" s="2">
         <v>83</v>
@@ -12595,10 +12438,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12618,19 +12461,23 @@
         <v>83</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>108</v>
+        <v>384</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>83</v>
       </c>
@@ -12678,7 +12525,7 @@
         <v>83</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
@@ -12696,27 +12543,27 @@
         <v>83</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>83</v>
+        <v>543</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>535</v>
+        <v>389</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>566</v>
+        <v>390</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>83</v>
+        <v>391</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12727,7 +12574,7 @@
         <v>81</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>83</v>
@@ -12736,21 +12583,23 @@
         <v>83</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>568</v>
+        <v>271</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>115</v>
+        <v>545</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>116</v>
+        <v>546</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>547</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>83</v>
       </c>
@@ -12774,13 +12623,13 @@
         <v>83</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>83</v>
+        <v>395</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>83</v>
+        <v>396</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>83</v>
@@ -12798,16 +12647,16 @@
         <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>83</v>
+        <v>397</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>106</v>
@@ -12819,10 +12668,10 @@
         <v>83</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>570</v>
+        <v>181</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>571</v>
+        <v>398</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>83</v>
@@ -12833,14 +12682,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>83</v>
+        <v>400</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12856,21 +12705,23 @@
         <v>83</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>573</v>
+        <v>271</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>115</v>
+        <v>549</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>116</v>
+        <v>550</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>83</v>
       </c>
@@ -12894,13 +12745,13 @@
         <v>83</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>83</v>
+        <v>403</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>83</v>
+        <v>404</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>83</v>
@@ -12918,7 +12769,7 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
@@ -12936,27 +12787,27 @@
         <v>83</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>83</v>
+        <v>405</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>570</v>
+        <v>406</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>575</v>
+        <v>407</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>83</v>
+        <v>408</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12976,22 +12827,22 @@
         <v>83</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>516</v>
+        <v>84</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>115</v>
+        <v>552</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>116</v>
+        <v>553</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>577</v>
+        <v>465</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>578</v>
+        <v>466</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>83</v>
@@ -13040,7 +12891,7 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -13061,985 +12912,15 @@
         <v>83</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>579</v>
+        <v>468</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>580</v>
+        <v>469</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP91" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O92" s="2"/>
-      <c r="P92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP92" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="P93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP93" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="P94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AP94" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="P95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP95" t="s" s="2">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="P96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP96" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP97" t="s" s="2">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="P98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP98" t="s" s="2">
         <v>83</v>
       </c>
     </row>
